--- a/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Desktop/20180518/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Dropbox/プロジェクト/脆弱性診断士スキルマッププロジェクト/2018年6月1日リリース版/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D75E2299-89B1-574A-ACE5-B2AEDCB38EEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CF0A2F4-4A47-5241-8820-88FDE68CBE3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="56020" windowHeight="35540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="460" windowWidth="56020" windowHeight="35540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="脆弱性診断ガイドライン（2018年5月公開版）" sheetId="1" r:id="rId1"/>
+    <sheet name="脆弱性診断ガイドライン（2018年6月1日公開版）" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'脆弱性診断ガイドライン（2018年5月公開版）'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'脆弱性診断ガイドライン（2018年6月1日公開版）'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="303">
   <si>
     <t>No.</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>主な診断対象はSet-CookieやLocationヘッダフィールド</t>
-  </si>
-  <si>
-    <t>%0d%0akensa</t>
   </si>
   <si>
     <t>パラメータに改行コードが2つ挿入され、「kensa」文字列がHTTPボディ部分に表示される</t>
@@ -1014,6 +1011,21 @@
   <si>
     <t>権限がパラメータとして用いられている例：
 func=admin など</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CRLFインジェクション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>%0d%0a%0d%0akensa</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不要な情報の存在</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウナジョウホウノソンザイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1071,7 +1083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1094,11 +1106,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1124,17 +1173,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1146,6 +1189,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,19 +1597,19 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1566,7 +1624,7 @@
       <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="1"/>
@@ -1585,28 +1643,28 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1623,28 +1681,28 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="1"/>
@@ -1663,28 +1721,28 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="1"/>
@@ -1703,28 +1761,28 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1741,30 +1799,30 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1781,28 +1839,28 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1819,28 +1877,28 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1857,28 +1915,28 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1895,28 +1953,28 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1933,28 +1991,28 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1971,28 +2029,30 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="1"/>
@@ -2011,28 +2071,28 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1"/>
@@ -2051,29 +2111,29 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2091,30 +2151,30 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2131,28 +2191,28 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2169,28 +2229,28 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2207,28 +2267,28 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2245,28 +2305,28 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2283,29 +2343,29 @@
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2323,30 +2383,30 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2363,28 +2423,28 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2401,28 +2461,28 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="10"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2439,28 +2499,28 @@
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="10"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2477,31 +2537,31 @@
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="8" t="s">
+      <c r="F26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="H26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2519,29 +2579,29 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="I27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2559,29 +2619,29 @@
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2599,31 +2659,31 @@
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2641,29 +2701,29 @@
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2681,29 +2741,29 @@
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="13" t="s">
+      <c r="G31" s="14"/>
+      <c r="H31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2721,33 +2781,33 @@
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="G32" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2765,26 +2825,26 @@
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K33" s="10"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2801,30 +2861,30 @@
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
+      <c r="H34" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="J34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" s="10"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2841,26 +2901,26 @@
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="10" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2877,26 +2937,26 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
+      <c r="I36" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36" s="10"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2913,25 +2973,25 @@
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2949,29 +3009,29 @@
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="I38" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="K38" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2989,30 +3049,30 @@
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="9" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="J39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3029,28 +3089,28 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K40" s="10"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3067,26 +3127,26 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="14" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K41" s="10"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3103,26 +3163,26 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="9" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="8" t="s">
+      <c r="I42" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="J42" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K42" s="10"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3139,24 +3199,24 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="J43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K43" s="10"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3173,26 +3233,26 @@
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="9" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13" t="s">
+      <c r="I44" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K44" s="10"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3209,24 +3269,24 @@
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="10"/>
+      <c r="K45" s="9"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3243,28 +3303,28 @@
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="8" t="s">
+      <c r="I46" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="J46" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K46" s="10"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3281,27 +3341,27 @@
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="J47" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="K47" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3319,27 +3379,27 @@
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="J48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="K48" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3357,26 +3417,26 @@
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J49" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K49" s="10"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3393,28 +3453,28 @@
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="13" t="s">
+      <c r="I50" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="K50" s="10"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3431,29 +3491,29 @@
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3471,25 +3531,25 @@
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" s="13"/>
+        <v>193</v>
+      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="J52" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="K52" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3507,30 +3567,30 @@
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="E53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="I53" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="J53" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K53" s="10"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3547,26 +3607,26 @@
       <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="10" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" s="10" t="s">
+      <c r="I54" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="J54" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K54" s="10"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3583,28 +3643,28 @@
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="13" t="s">
+      <c r="H55" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="I55" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="J55" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K55" s="10"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3621,27 +3681,27 @@
       <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="10" t="s">
+      <c r="I56" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3659,28 +3719,28 @@
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="E57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="13" t="s">
+      <c r="I57" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="J57" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K57" s="10"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3697,26 +3757,26 @@
       <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13" t="s">
+      <c r="I58" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="J58" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K58" s="10"/>
+      <c r="K58" s="9"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3733,26 +3793,26 @@
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="13" t="s">
+      <c r="I59" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="J59" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J59" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="K59" s="10"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3769,27 +3829,27 @@
       <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13" t="s">
+      <c r="I60" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="J60" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="K60" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3807,26 +3867,26 @@
       <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14" t="s">
+      <c r="I61" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="J61" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J61" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="K61" s="10"/>
+      <c r="K61" s="9"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -3843,27 +3903,27 @@
       <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="9" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="13" t="s">
+      <c r="I62" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="J62" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="K62" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3881,25 +3941,25 @@
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="10" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="J63" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J63" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>250</v>
+      <c r="K63" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3917,26 +3977,26 @@
       <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="10"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I64" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="J64" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="K64" s="10"/>
+      <c r="K64" s="9"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -3953,24 +4013,24 @@
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="10" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10" t="s">
+      <c r="I65" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="J65" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="J65" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K65" s="10"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -3987,24 +4047,24 @@
       <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I66" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="J66" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K66" s="10"/>
+      <c r="K66" s="9"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -4021,25 +4081,25 @@
       <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I67" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="K67" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4057,24 +4117,26 @@
       <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="10" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10" t="s">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I68" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="J68" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="K68" s="10"/>
+      <c r="K68" s="9"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4091,33 +4153,33 @@
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="13" t="s">
+      <c r="I69" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="J69" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="K69" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -4135,26 +4197,26 @@
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="10" t="s">
+      <c r="I70" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="J70" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="K70" s="10"/>
+      <c r="K70" s="9"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4171,30 +4233,30 @@
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="13" t="s">
+      <c r="G71" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="H71" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="I71" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="J71" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="K71" s="10"/>
+      <c r="K71" s="9"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4211,28 +4273,28 @@
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E72" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I72" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I72" s="8" t="s">
+      <c r="J72" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="1"/>
@@ -4251,30 +4313,30 @@
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="9" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="10" t="s">
+      <c r="G73" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="H73" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="I73" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="J73" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="K73" s="10"/>
+      <c r="K73" s="9"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -27832,7 +27894,18 @@
       <c r="V1054" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C57:C68"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C46:D50"/>
+    <mergeCell ref="C51:D52"/>
     <mergeCell ref="C22:D25"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D7:D12"/>
@@ -27849,16 +27922,6 @@
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C46:D50"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C57:C68"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Dropbox/プロジェクト/脆弱性診断士スキルマッププロジェクト/2018年6月1日リリース版/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CF0A2F4-4A47-5241-8820-88FDE68CBE3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB3BB1E1-1B8A-DB49-A1F1-9FB7CAAE4007}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="460" windowWidth="56020" windowHeight="35540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-65640" yWindow="460" windowWidth="56020" windowHeight="37340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="脆弱性診断ガイドライン（2018年6月1日公開版）" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="294">
   <si>
     <t>No.</t>
   </si>
@@ -833,33 +833,6 @@
   </si>
   <si>
     <t>レスポンスヘッダの Set-Cookieヘッダフィールド値に"Secure"属性が指定されている</t>
-  </si>
-  <si>
-    <t>パスワードの平文保存</t>
-  </si>
-  <si>
-    <t>パスワードリセットを実行</t>
-  </si>
-  <si>
-    <t>登録したパスワードが表示される/メールで送られてくる</t>
-  </si>
-  <si>
-    <t>再設定画面に遷移する</t>
-  </si>
-  <si>
-    <t>平文なのか可逆暗号なのかは判断できない</t>
-  </si>
-  <si>
-    <t>パスワード変更画面、管理者画面</t>
-  </si>
-  <si>
-    <t>パスワード変更画面、管理者画面にアクセス</t>
-  </si>
-  <si>
-    <t>登録したパスワードが表示される/inputタグに埋まっている</t>
-  </si>
-  <si>
-    <t>表示されない</t>
   </si>
   <si>
     <t>HTTPSの不備</t>
@@ -1170,9 +1143,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1194,9 +1164,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1205,6 +1172,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,7 +1497,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V1054"/>
+  <dimension ref="A1:V1052"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1594,37 +1567,37 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="255">
-      <c r="A2" s="8">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="1"/>
@@ -1640,31 +1613,31 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="34">
-      <c r="A3" s="8">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="9" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1678,31 +1651,31 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="119">
-      <c r="A4" s="8">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="1"/>
@@ -1718,31 +1691,31 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="119">
-      <c r="A5" s="8">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="1"/>
@@ -1758,31 +1731,31 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="85">
-      <c r="A6" s="8">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1796,33 +1769,33 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="34">
-      <c r="A7" s="8">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1836,31 +1809,31 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="34">
-      <c r="A8" s="8">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1874,31 +1847,31 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="34">
-      <c r="A9" s="8">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1912,31 +1885,31 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="34">
-      <c r="A10" s="8">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="9" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1950,31 +1923,31 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="34">
-      <c r="A11" s="8">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1988,31 +1961,31 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="34">
-      <c r="A12" s="8">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="9" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2026,33 +1999,33 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="51">
-      <c r="A13" s="8">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="1"/>
@@ -2068,31 +2041,31 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="68">
-      <c r="A14" s="8">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="9" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1"/>
@@ -2108,31 +2081,31 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="34">
-      <c r="A15" s="8">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="9" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L15" s="1"/>
@@ -2148,33 +2121,33 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="51">
-      <c r="A16" s="8">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2188,31 +2161,31 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="51">
-      <c r="A17" s="8">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="8" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2226,31 +2199,31 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="51">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2264,31 +2237,31 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="51">
-      <c r="A19" s="8">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="9" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2302,31 +2275,31 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="51">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="9" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2340,31 +2313,31 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="51">
-      <c r="A21" s="8">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="9" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>70</v>
       </c>
       <c r="L21" s="1"/>
@@ -2380,33 +2353,33 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="34">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2420,31 +2393,31 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="34">
-      <c r="A23" s="8">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="8" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2458,31 +2431,31 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="34">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2496,31 +2469,31 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="34">
-      <c r="A25" s="8">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="8" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2534,33 +2507,33 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="153">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="14" t="s">
         <v>86</v>
       </c>
       <c r="L26" s="1"/>
@@ -2576,31 +2549,31 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="153">
-      <c r="A27" s="8">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="14" t="s">
         <v>86</v>
       </c>
       <c r="L27" s="1"/>
@@ -2616,31 +2589,31 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="153">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="8" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L28" s="1"/>
@@ -2656,33 +2629,33 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="153">
-      <c r="A29" s="8">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>98</v>
       </c>
       <c r="L29" s="1"/>
@@ -2698,31 +2671,31 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="153">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="9" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>98</v>
       </c>
       <c r="L30" s="1"/>
@@ -2738,31 +2711,31 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="204">
-      <c r="A31" s="8">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>106</v>
       </c>
       <c r="L31" s="1"/>
@@ -2778,35 +2751,35 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="85">
-      <c r="A32" s="8">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>113</v>
       </c>
       <c r="L32" s="1"/>
@@ -2822,29 +2795,29 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" ht="102">
-      <c r="A33" s="8">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="11" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2858,33 +2831,33 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="51">
-      <c r="A34" s="8">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2898,29 +2871,29 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="8">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="9" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2934,29 +2907,29 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="34">
-      <c r="A36" s="8">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2970,27 +2943,27 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" ht="68">
-      <c r="A37" s="8">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="9" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>137</v>
       </c>
       <c r="L37" s="1"/>
@@ -3006,31 +2979,31 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" ht="51">
-      <c r="A38" s="8">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="8" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>142</v>
       </c>
       <c r="L38" s="1"/>
@@ -3046,33 +3019,33 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="68">
-      <c r="A39" s="8">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="15" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3086,31 +3059,31 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" ht="34">
-      <c r="A40" s="8">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="9" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="K40" s="9"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3124,29 +3097,29 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="34">
-      <c r="A41" s="8">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="9" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="12" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K41" s="9"/>
+      <c r="K41" s="8"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3160,29 +3133,29 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" ht="34">
-      <c r="A42" s="8">
+      <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="8" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="8"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3196,27 +3169,27 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" ht="34">
-      <c r="A43" s="8">
+      <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="9" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3230,29 +3203,29 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" ht="68">
-      <c r="A44" s="8">
+      <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3266,27 +3239,27 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" ht="51">
-      <c r="A45" s="8">
+      <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="9" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3300,31 +3273,31 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:22" ht="51">
-      <c r="A46" s="8">
+      <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="19"/>
+      <c r="E46" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="8"/>
+      <c r="G46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="8"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3338,30 +3311,30 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" ht="68">
-      <c r="A47" s="8">
+      <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="8" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>298</v>
+      <c r="K47" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3376,30 +3349,30 @@
       <c r="V47" s="1"/>
     </row>
     <row r="48" spans="1:22" ht="51">
-      <c r="A48" s="8">
+      <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="8" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>299</v>
+      <c r="K48" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3414,29 +3387,29 @@
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" ht="51">
-      <c r="A49" s="8">
+      <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="8" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="9"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3450,31 +3423,31 @@
       <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22" ht="153">
-      <c r="A50" s="8">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="8" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3488,31 +3461,31 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" ht="221">
-      <c r="A51" s="8">
+      <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="19"/>
+      <c r="E51" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="8" t="s">
         <v>192</v>
       </c>
       <c r="L51" s="1"/>
@@ -3528,27 +3501,27 @@
       <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22" ht="68">
-      <c r="A52" s="8">
+      <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="8" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="K52" s="14" t="s">
         <v>197</v>
       </c>
       <c r="L52" s="1"/>
@@ -3564,33 +3537,33 @@
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="68">
-      <c r="A53" s="8">
+      <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="15" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3604,29 +3577,29 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="68">
-      <c r="A54" s="8">
+      <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="9" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J54" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="8"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3640,31 +3613,31 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="85">
-      <c r="A55" s="8">
+      <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="8" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="11" t="s">
+      <c r="F55" s="8"/>
+      <c r="G55" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K55" s="9"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3678,29 +3651,29 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="68">
-      <c r="A56" s="8">
+      <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="8" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="9" t="s">
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="8" t="s">
         <v>219</v>
       </c>
       <c r="L56" s="1"/>
@@ -3716,31 +3689,31 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="136">
-      <c r="A57" s="8">
+      <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="11" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J57" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K57" s="9"/>
+      <c r="K57" s="8"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3754,29 +3727,29 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="68">
-      <c r="A58" s="8">
+      <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="8" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
+      <c r="F58" s="8"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="I58" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J58" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="K58" s="9"/>
+      <c r="K58" s="8"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3790,29 +3763,29 @@
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" ht="34">
-      <c r="A59" s="8">
+      <c r="A59" s="14">
         <v>58</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="8" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="11" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K59" s="9"/>
+      <c r="K59" s="8"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3826,29 +3799,29 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" ht="51">
-      <c r="A60" s="8">
+      <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="8" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11" t="s">
+      <c r="F60" s="8"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="K60" s="8" t="s">
         <v>239</v>
       </c>
       <c r="L60" s="1"/>
@@ -3864,29 +3837,29 @@
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" ht="68">
-      <c r="A61" s="8">
+      <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="8" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12" t="s">
+      <c r="F61" s="8"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="K61" s="9"/>
+      <c r="K61" s="8"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -3899,32 +3872,30 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="1:22" ht="51">
-      <c r="A62" s="8">
+    <row r="62" spans="1:22">
+      <c r="A62" s="14">
         <v>61</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="15" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="11" t="s">
+      <c r="E62" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I62" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="K62" s="9" t="s">
-        <v>249</v>
-      </c>
+      <c r="K62" s="8"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -3938,29 +3909,27 @@
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" ht="51">
-      <c r="A63" s="8">
+      <c r="A63" s="14">
         <v>62</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="9" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9" t="s">
+      <c r="I63" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="J63" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>249</v>
-      </c>
+      <c r="K63" s="8"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3973,30 +3942,28 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="8">
+    <row r="64" spans="1:22" ht="34">
+      <c r="A64" s="14">
         <v>63</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="9"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J64" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="8"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4009,28 +3976,30 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="1:22" ht="51">
-      <c r="A65" s="8">
+    <row r="65" spans="1:22" ht="187">
+      <c r="A65" s="14">
         <v>64</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="9" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9" t="s">
+      <c r="K65" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="K65" s="9"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -4043,28 +4012,30 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="1:22" ht="34">
-      <c r="A66" s="8">
+    <row r="66" spans="1:22" ht="68">
+      <c r="A66" s="14">
         <v>65</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K66" s="9"/>
+      <c r="K66" s="8"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -4077,29 +4048,37 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="1:22" ht="187">
-      <c r="A67" s="8">
+    <row r="67" spans="1:22" ht="34">
+      <c r="A67" s="14">
         <v>66</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9" t="s">
+      <c r="B67" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="E67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="I67" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>268</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4113,30 +4092,30 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:22" ht="68">
-      <c r="A68" s="8">
+    <row r="68" spans="1:22" ht="34">
+      <c r="A68" s="14">
         <v>67</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J68" s="9" t="s">
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="K68" s="9"/>
+      <c r="I68" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K68" s="8"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4150,37 +4129,33 @@
       <c r="V68" s="1"/>
     </row>
     <row r="69" spans="1:22" ht="34">
-      <c r="A69" s="8">
+      <c r="A69" s="14">
         <v>68</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="F69" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="G69" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="H69" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="I69" s="8" t="s">
         <v>278</v>
       </c>
+      <c r="J69" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="K69" s="8"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -4193,30 +4168,34 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:22" ht="34">
-      <c r="A70" s="8">
+    <row r="70" spans="1:22" ht="102">
+      <c r="A70" s="14">
         <v>69</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" s="9" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="G70" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I70" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="K70" s="9"/>
+      <c r="K70" s="14"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4229,34 +4208,34 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
     </row>
-    <row r="71" spans="1:22" ht="34">
-      <c r="A71" s="8">
+    <row r="71" spans="1:22" ht="51">
+      <c r="A71" s="14">
         <v>70</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="8" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="19"/>
+      <c r="E71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="K71" s="9"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4269,34 +4248,18 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72" spans="1:22" ht="102">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="K72" s="8"/>
+    <row r="72" spans="1:22">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -4309,34 +4272,18 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="51">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="K73" s="9"/>
+    <row r="73" spans="1:22">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4355,11 +4302,11 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -4398,8 +4345,8 @@
       <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4422,8 +4369,8 @@
       <c r="V76" s="1"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4446,8 +4393,8 @@
       <c r="V77" s="1"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4470,8 +4417,8 @@
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -27845,83 +27792,34 @@
       <c r="U1052" s="1"/>
       <c r="V1052" s="1"/>
     </row>
-    <row r="1053" spans="1:22">
-      <c r="A1053" s="1"/>
-      <c r="B1053" s="1"/>
-      <c r="C1053" s="1"/>
-      <c r="D1053" s="1"/>
-      <c r="E1053" s="1"/>
-      <c r="F1053" s="4"/>
-      <c r="G1053" s="4"/>
-      <c r="H1053" s="1"/>
-      <c r="I1053" s="1"/>
-      <c r="J1053" s="1"/>
-      <c r="K1053" s="1"/>
-      <c r="L1053" s="1"/>
-      <c r="M1053" s="1"/>
-      <c r="N1053" s="1"/>
-      <c r="O1053" s="1"/>
-      <c r="P1053" s="1"/>
-      <c r="Q1053" s="1"/>
-      <c r="R1053" s="1"/>
-      <c r="S1053" s="1"/>
-      <c r="T1053" s="1"/>
-      <c r="U1053" s="1"/>
-      <c r="V1053" s="1"/>
-    </row>
-    <row r="1054" spans="1:22">
-      <c r="A1054" s="1"/>
-      <c r="B1054" s="1"/>
-      <c r="C1054" s="1"/>
-      <c r="D1054" s="1"/>
-      <c r="E1054" s="1"/>
-      <c r="F1054" s="4"/>
-      <c r="G1054" s="4"/>
-      <c r="H1054" s="1"/>
-      <c r="I1054" s="1"/>
-      <c r="J1054" s="1"/>
-      <c r="K1054" s="1"/>
-      <c r="L1054" s="1"/>
-      <c r="M1054" s="1"/>
-      <c r="N1054" s="1"/>
-      <c r="O1054" s="1"/>
-      <c r="P1054" s="1"/>
-      <c r="Q1054" s="1"/>
-      <c r="R1054" s="1"/>
-      <c r="S1054" s="1"/>
-      <c r="T1054" s="1"/>
-      <c r="U1054" s="1"/>
-      <c r="V1054" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C34:C45"/>
+    <mergeCell ref="C2:C21"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="C46:D50"/>
+    <mergeCell ref="C51:D52"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C26:D28"/>
     <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C57:C68"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C46:D50"/>
-    <mergeCell ref="C51:D52"/>
     <mergeCell ref="C22:D25"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C34:C45"/>
-    <mergeCell ref="C2:C21"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B2:B68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
